--- a/public/import/DAILY AGUNG.xlsx
+++ b/public/import/DAILY AGUNG.xlsx
@@ -81,22 +81,22 @@
     <t>START KIRIM  BATCH 2 BARANG YANG SUDAH SELESAI TARGET 1 HARI 12 PENGIRIMAN</t>
   </si>
   <si>
-    <t>2023-09-18</t>
-  </si>
-  <si>
-    <t>2023-09-19</t>
-  </si>
-  <si>
-    <t>2023-09-20</t>
-  </si>
-  <si>
-    <t>2023-09-21</t>
-  </si>
-  <si>
-    <t>2023-09-22</t>
-  </si>
-  <si>
-    <t>2023-09-23</t>
+    <t>2023-09-25</t>
+  </si>
+  <si>
+    <t>2023-09-26</t>
+  </si>
+  <si>
+    <t>2023-09-27</t>
+  </si>
+  <si>
+    <t>2023-09-28</t>
+  </si>
+  <si>
+    <t>2023-09-29</t>
+  </si>
+  <si>
+    <t>2023-09-30</t>
   </si>
 </sst>
 </file>
@@ -446,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
